--- a/report/ml_perform_crossval_raw2_2022-11-19.xlsx
+++ b/report/ml_perform_crossval_raw2_2022-11-19.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5268F6-A02F-4954-BDC3-2EA0B2DBD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -79,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +149,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +480,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,33 +544,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.385788917541504</v>
+        <v>2.3857889175415039</v>
       </c>
       <c r="C2">
         <v>0.1106553077697754</v>
       </c>
       <c r="D2">
-        <v>0.1201931464854571</v>
+        <v>0.12019314648545711</v>
       </c>
       <c r="E2">
-        <v>-0.06029168277421371</v>
+        <v>-6.0291682774213713E-2</v>
       </c>
       <c r="F2">
-        <v>0.02393861021918416</v>
+        <v>2.3938610219184159E-2</v>
       </c>
       <c r="G2">
-        <v>-0.006647262579518169</v>
+        <v>-6.6472625795181688E-3</v>
       </c>
       <c r="H2">
         <v>0.1958825036640898</v>
       </c>
       <c r="I2">
-        <v>0.7728936307771193</v>
+        <v>0.77289363077711926</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -519,7 +585,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -530,22 +596,22 @@
         <v>0.1048581600189209</v>
       </c>
       <c r="D3">
-        <v>0.1236177422277741</v>
+        <v>0.12361774222777409</v>
       </c>
       <c r="E3">
-        <v>-0.05950719291686775</v>
+        <v>-5.9507192916867749E-2</v>
       </c>
       <c r="F3">
-        <v>0.02422617768139974</v>
+        <v>2.422617768139974E-2</v>
       </c>
       <c r="G3">
-        <v>-0.006583300224236731</v>
+        <v>-6.583300224236731E-3</v>
       </c>
       <c r="H3">
-        <v>0.1704099461216486</v>
+        <v>0.17040994612164859</v>
       </c>
       <c r="I3">
-        <v>0.7762058900806822</v>
+        <v>0.77620589008068219</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -560,12 +626,12 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.833573341369629</v>
+        <v>1.8335733413696289</v>
       </c>
       <c r="C4">
         <v>0.1049365997314453</v>
@@ -574,19 +640,19 @@
         <v>0.1229384558757201</v>
       </c>
       <c r="E4">
-        <v>-0.05984544406625691</v>
+        <v>-5.9845444066256907E-2</v>
       </c>
       <c r="F4">
-        <v>0.02434162310026245</v>
+        <v>2.4341623100262451E-2</v>
       </c>
       <c r="G4">
-        <v>-0.006597383256971817</v>
+        <v>-6.5973832569718172E-3</v>
       </c>
       <c r="H4">
         <v>0.118026471834683</v>
       </c>
       <c r="I4">
-        <v>0.7786061553525044</v>
+        <v>0.77860615535250444</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -601,7 +667,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -615,19 +681,19 @@
         <v>0.1277886860060474</v>
       </c>
       <c r="E5">
-        <v>-0.05847511572386786</v>
+        <v>-5.8475115723867863E-2</v>
       </c>
       <c r="F5">
-        <v>0.02653696357984008</v>
+        <v>2.6536963579840079E-2</v>
       </c>
       <c r="G5">
-        <v>-0.006309821490622401</v>
+        <v>-6.3098214906224014E-3</v>
       </c>
       <c r="H5">
-        <v>0.1373610980479401</v>
+        <v>0.13736109804794011</v>
       </c>
       <c r="I5">
-        <v>0.7825265128440229</v>
+        <v>0.78252651284402286</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -642,33 +708,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.810165882110596</v>
+        <v>1.8101658821105959</v>
       </c>
       <c r="C6">
         <v>0.1040096282958984</v>
       </c>
       <c r="D6">
-        <v>0.1225562424510035</v>
+        <v>0.12255624245100349</v>
       </c>
       <c r="E6">
-        <v>-0.05925021313206926</v>
+        <v>-5.9250213132069261E-2</v>
       </c>
       <c r="F6">
-        <v>0.02457257184429269</v>
+        <v>2.4572571844292689E-2</v>
       </c>
       <c r="G6">
-        <v>-0.006354129562763037</v>
+        <v>-6.3541295627630367E-3</v>
       </c>
       <c r="H6">
-        <v>0.1633834807258626</v>
+        <v>0.16338348072586259</v>
       </c>
       <c r="I6">
-        <v>0.7836992790835968</v>
+        <v>0.78369927908359682</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -683,7 +749,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -691,22 +757,22 @@
         <v>0.2423205375671387</v>
       </c>
       <c r="C7">
-        <v>0.006981849670410156</v>
+        <v>6.9818496704101563E-3</v>
       </c>
       <c r="D7">
-        <v>0.1203499063963566</v>
+        <v>0.12034990639635661</v>
       </c>
       <c r="E7">
-        <v>-0.1007981947410237</v>
+        <v>-0.10079819474102369</v>
       </c>
       <c r="F7">
-        <v>0.02332197297551983</v>
+        <v>2.3321972975519831E-2</v>
       </c>
       <c r="G7">
-        <v>-0.01661726295760665</v>
+        <v>-1.6617262957606651E-2</v>
       </c>
       <c r="H7">
-        <v>0.2165958530182419</v>
+        <v>0.21659585301824191</v>
       </c>
       <c r="I7">
         <v>0.4322646034245472</v>
@@ -724,33 +790,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.2114341259002686</v>
+        <v>0.21143412590026861</v>
       </c>
       <c r="C8">
-        <v>0.004987001419067383</v>
+        <v>4.9870014190673828E-3</v>
       </c>
       <c r="D8">
-        <v>0.1209009164669717</v>
+        <v>0.12090091646697169</v>
       </c>
       <c r="E8">
-        <v>-0.09985083157350197</v>
+        <v>-9.9850831573501969E-2</v>
       </c>
       <c r="F8">
-        <v>0.02292331625425588</v>
+        <v>2.2923316254255879E-2</v>
       </c>
       <c r="G8">
-        <v>-0.0165359121802044</v>
+        <v>-1.65359121802044E-2</v>
       </c>
       <c r="H8">
-        <v>0.2150245318707719</v>
+        <v>0.21502453187077189</v>
       </c>
       <c r="I8">
-        <v>0.4378746795643971</v>
+        <v>0.43787467956439707</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -765,7 +831,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -773,25 +839,25 @@
         <v>0.2174186706542969</v>
       </c>
       <c r="C9">
-        <v>0.004986286163330078</v>
+        <v>4.9862861633300781E-3</v>
       </c>
       <c r="D9">
-        <v>0.1184985967172651</v>
+        <v>0.11849859671726511</v>
       </c>
       <c r="E9">
-        <v>-0.1010234294084457</v>
+        <v>-0.10102342940844571</v>
       </c>
       <c r="F9">
-        <v>0.0226775070472716</v>
+        <v>2.2677507047271599E-2</v>
       </c>
       <c r="G9">
-        <v>-0.01664453529596098</v>
+        <v>-1.664453529596098E-2</v>
       </c>
       <c r="H9">
-        <v>0.1783226279491475</v>
+        <v>0.17832262794914749</v>
       </c>
       <c r="I9">
-        <v>0.4414455674301468</v>
+        <v>0.44144556743014679</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -806,33 +872,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0.2293870449066162</v>
+        <v>0.22938704490661621</v>
       </c>
       <c r="C10">
-        <v>0.005984067916870117</v>
+        <v>5.9840679168701172E-3</v>
       </c>
       <c r="D10">
-        <v>0.1264740078542035</v>
+        <v>0.12647400785420351</v>
       </c>
       <c r="E10">
-        <v>-0.09958117309750587</v>
+        <v>-9.9581173097505873E-2</v>
       </c>
       <c r="F10">
-        <v>0.02586267626240941</v>
+        <v>2.5862676262409411E-2</v>
       </c>
       <c r="G10">
-        <v>-0.01651584851113485</v>
+        <v>-1.6515848511134849E-2</v>
       </c>
       <c r="H10">
-        <v>0.1592802022950618</v>
+        <v>0.15928020229506179</v>
       </c>
       <c r="I10">
-        <v>0.4307669124404886</v>
+        <v>0.43076691244048859</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -847,7 +913,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -855,7 +921,7 @@
         <v>0.2214086055755615</v>
       </c>
       <c r="C11">
-        <v>0.004987001419067383</v>
+        <v>4.9870014190673828E-3</v>
       </c>
       <c r="D11">
         <v>0.1193604963567276</v>
@@ -864,13 +930,13 @@
         <v>-0.1010976297907594</v>
       </c>
       <c r="F11">
-        <v>0.02320996774893114</v>
+        <v>2.3209967748931141E-2</v>
       </c>
       <c r="G11">
-        <v>-0.01675987071618162</v>
+        <v>-1.6759870716181621E-2</v>
       </c>
       <c r="H11">
-        <v>0.2097757388351756</v>
+        <v>0.20977573883517561</v>
       </c>
       <c r="I11">
         <v>0.429477777787171</v>
@@ -888,33 +954,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.3595161437988281</v>
+        <v>0.35951614379882813</v>
       </c>
       <c r="C12">
-        <v>0.05089497566223145</v>
+        <v>5.0894975662231452E-2</v>
       </c>
       <c r="D12">
-        <v>0.1249897591434267</v>
+        <v>0.12498975914342671</v>
       </c>
       <c r="E12">
         <v>-0.1190316263169288</v>
       </c>
       <c r="F12">
-        <v>0.02452361895438584</v>
+        <v>2.4523618954385842E-2</v>
       </c>
       <c r="G12">
-        <v>-0.02241734178794175</v>
+        <v>-2.241734178794175E-2</v>
       </c>
       <c r="H12">
-        <v>0.176231581777738</v>
+        <v>0.17623158177773801</v>
       </c>
       <c r="I12">
-        <v>0.2341026038636125</v>
+        <v>0.23410260386361251</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
@@ -929,33 +995,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.2682821750640869</v>
+        <v>0.26828217506408691</v>
       </c>
       <c r="C13">
-        <v>0.04684662818908691</v>
+        <v>4.6846628189086907E-2</v>
       </c>
       <c r="D13">
-        <v>0.1243686434461947</v>
+        <v>0.12436864344619469</v>
       </c>
       <c r="E13">
-        <v>-0.118809961569934</v>
+        <v>-0.11880996156993399</v>
       </c>
       <c r="F13">
-        <v>0.02412228557182172</v>
+        <v>2.4122285571821719E-2</v>
       </c>
       <c r="G13">
-        <v>-0.02243690746139884</v>
+        <v>-2.2436907461398842E-2</v>
       </c>
       <c r="H13">
-        <v>0.1739675796004349</v>
+        <v>0.17396757960043491</v>
       </c>
       <c r="I13">
-        <v>0.2372749891946453</v>
+        <v>0.23727498919464529</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
@@ -970,33 +1036,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.2743005752563477</v>
+        <v>0.27430057525634771</v>
       </c>
       <c r="C14">
-        <v>0.04787111282348633</v>
+        <v>4.7871112823486328E-2</v>
       </c>
       <c r="D14">
         <v>0.1187022065314409</v>
       </c>
       <c r="E14">
-        <v>-0.1205332108952999</v>
+        <v>-0.12053321089529991</v>
       </c>
       <c r="F14">
-        <v>0.02271759676265929</v>
+        <v>2.271759676265929E-2</v>
       </c>
       <c r="G14">
-        <v>-0.0227795377247491</v>
+        <v>-2.27795377247491E-2</v>
       </c>
       <c r="H14">
-        <v>0.1768700515298191</v>
+        <v>0.17687005152981911</v>
       </c>
       <c r="I14">
-        <v>0.2355682185288555</v>
+        <v>0.23556821852885551</v>
       </c>
       <c r="J14" t="s">
         <v>15</v>
@@ -1011,33 +1077,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>0.2781643867492676</v>
+        <v>0.27816438674926758</v>
       </c>
       <c r="C15">
-        <v>0.04687142372131348</v>
+        <v>4.6871423721313477E-2</v>
       </c>
       <c r="D15">
         <v>0.12985167395375</v>
       </c>
       <c r="E15">
-        <v>-0.1177197788271502</v>
+        <v>-0.11771977882715021</v>
       </c>
       <c r="F15">
-        <v>0.02685239687091744</v>
+        <v>2.6852396870917439E-2</v>
       </c>
       <c r="G15">
-        <v>-0.02198076918022526</v>
+        <v>-2.1980769180225259E-2</v>
       </c>
       <c r="H15">
         <v>0.1271072863397755</v>
       </c>
       <c r="I15">
-        <v>0.2424136671538875</v>
+        <v>0.24241366715388751</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -1052,33 +1118,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
-        <v>0.2882609367370605</v>
+        <v>0.28826093673706049</v>
       </c>
       <c r="C16">
-        <v>0.04784226417541504</v>
+        <v>4.7842264175415039E-2</v>
       </c>
       <c r="D16">
         <v>0.1244271141538576</v>
       </c>
       <c r="E16">
-        <v>-0.1189696306221242</v>
+        <v>-0.11896963062212421</v>
       </c>
       <c r="F16">
-        <v>0.02439971433931699</v>
+        <v>2.4399714339316991E-2</v>
       </c>
       <c r="G16">
-        <v>-0.02238506083385997</v>
+        <v>-2.2385060833859969E-2</v>
       </c>
       <c r="H16">
         <v>0.1692687191559121</v>
       </c>
       <c r="I16">
-        <v>0.2379908611721799</v>
+        <v>0.23799086117217991</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -1093,33 +1159,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1.042332172393799</v>
+        <v>1.0423321723937991</v>
       </c>
       <c r="C17">
-        <v>0.06733417510986328</v>
+        <v>6.7334175109863281E-2</v>
       </c>
       <c r="D17">
         <v>0.1216385919736824</v>
       </c>
       <c r="E17">
-        <v>-0.05299175284244751</v>
+        <v>-5.2991752842447511E-2</v>
       </c>
       <c r="F17">
-        <v>0.02374266757856169</v>
+        <v>2.374266757856169E-2</v>
       </c>
       <c r="G17">
-        <v>-0.004579894827187504</v>
+        <v>-4.5798948271875044E-3</v>
       </c>
       <c r="H17">
-        <v>0.2024643772214997</v>
+        <v>0.20246437722149971</v>
       </c>
       <c r="I17">
-        <v>0.843526072096192</v>
+        <v>0.84352607209619201</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1134,33 +1200,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0.9820184707641602</v>
+        <v>0.98201847076416016</v>
       </c>
       <c r="C18">
-        <v>0.06482672691345215</v>
+        <v>6.4826726913452148E-2</v>
       </c>
       <c r="D18">
-        <v>0.1223830055570577</v>
+        <v>0.12238300555705769</v>
       </c>
       <c r="E18">
-        <v>-0.05199093648185463</v>
+        <v>-5.1990936481854627E-2</v>
       </c>
       <c r="F18">
-        <v>0.02299889528767683</v>
+        <v>2.2998895287676829E-2</v>
       </c>
       <c r="G18">
-        <v>-0.00446716851775474</v>
+        <v>-4.4671685177547398E-3</v>
       </c>
       <c r="H18">
         <v>0.2124364383121293</v>
       </c>
       <c r="I18">
-        <v>0.8481421219998472</v>
+        <v>0.84814212199984718</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -1175,33 +1241,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>0.9932529926300049</v>
+        <v>0.99325299263000488</v>
       </c>
       <c r="C19">
-        <v>0.05684781074523926</v>
+        <v>5.6847810745239258E-2</v>
       </c>
       <c r="D19">
         <v>0.1192626375946203</v>
       </c>
       <c r="E19">
-        <v>-0.05194642185733333</v>
+        <v>-5.1946421857333329E-2</v>
       </c>
       <c r="F19">
-        <v>0.02264142991726472</v>
+        <v>2.264142991726472E-2</v>
       </c>
       <c r="G19">
-        <v>-0.004363127178085382</v>
+        <v>-4.363127178085382E-3</v>
       </c>
       <c r="H19">
         <v>0.1796298157856854</v>
       </c>
       <c r="I19">
-        <v>0.8535829338667709</v>
+        <v>0.85358293386677087</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -1216,33 +1282,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>1.023591756820679</v>
+        <v>1.0235917568206789</v>
       </c>
       <c r="C20">
-        <v>0.05582118034362793</v>
+        <v>5.582118034362793E-2</v>
       </c>
       <c r="D20">
-        <v>0.1277672446332705</v>
+        <v>0.12776724463327049</v>
       </c>
       <c r="E20">
-        <v>-0.0513640518470137</v>
+        <v>-5.1364051847013703E-2</v>
       </c>
       <c r="F20">
-        <v>0.02566438155281379</v>
+        <v>2.5664381552813791E-2</v>
       </c>
       <c r="G20">
-        <v>-0.00439727353088899</v>
+        <v>-4.39727353088899E-3</v>
       </c>
       <c r="H20">
-        <v>0.165726182070925</v>
+        <v>0.16572618207092499</v>
       </c>
       <c r="I20">
-        <v>0.8484441421738579</v>
+        <v>0.84844414217385788</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1257,7 +1323,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1265,25 +1331,25 @@
         <v>1.026947021484375</v>
       </c>
       <c r="C21">
-        <v>0.05386137962341309</v>
+        <v>5.3861379623413093E-2</v>
       </c>
       <c r="D21">
-        <v>0.1233826099063687</v>
+        <v>0.12338260990636871</v>
       </c>
       <c r="E21">
-        <v>-0.05226717330874475</v>
+        <v>-5.2267173308744752E-2</v>
       </c>
       <c r="F21">
-        <v>0.02369767016174998</v>
+        <v>2.3697670161749979E-2</v>
       </c>
       <c r="G21">
-        <v>-0.004504769259921445</v>
+        <v>-4.5047692599214451E-3</v>
       </c>
       <c r="H21">
         <v>0.1931710505819654</v>
       </c>
       <c r="I21">
-        <v>0.8466532939156252</v>
+        <v>0.84665329391562516</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1298,7 +1364,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1306,25 +1372,25 @@
         <v>0.2872307300567627</v>
       </c>
       <c r="C22">
-        <v>0.004986286163330078</v>
+        <v>4.9862861633300781E-3</v>
       </c>
       <c r="D22">
         <v>0.1225723192362851</v>
       </c>
       <c r="E22">
-        <v>-0.09122561034109528</v>
+        <v>-9.1225610341095276E-2</v>
       </c>
       <c r="F22">
-        <v>0.02403170376285672</v>
+        <v>2.403170376285672E-2</v>
       </c>
       <c r="G22">
-        <v>-0.01375017659115617</v>
+        <v>-1.375017659115617E-2</v>
       </c>
       <c r="H22">
-        <v>0.1927554153921472</v>
+        <v>0.19275541539214719</v>
       </c>
       <c r="I22">
-        <v>0.5302197491922638</v>
+        <v>0.53021974919226378</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -1339,33 +1405,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0.3217060565948486</v>
+        <v>0.32170605659484858</v>
       </c>
       <c r="C23">
-        <v>0.004986763000488281</v>
+        <v>4.9867630004882813E-3</v>
       </c>
       <c r="D23">
         <v>0.1238900043109486</v>
       </c>
       <c r="E23">
-        <v>-0.09078889567806257</v>
+        <v>-9.0788895678062573E-2</v>
       </c>
       <c r="F23">
-        <v>0.02359461921821546</v>
+        <v>2.359461921821546E-2</v>
       </c>
       <c r="G23">
-        <v>-0.01392270844404434</v>
+        <v>-1.392270844404434E-2</v>
       </c>
       <c r="H23">
-        <v>0.1920367428202727</v>
+        <v>0.19203674282027269</v>
       </c>
       <c r="I23">
-        <v>0.5267084839257316</v>
+        <v>0.52670848392573155</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -1380,7 +1446,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1388,25 +1454,25 @@
         <v>0.3560478687286377</v>
       </c>
       <c r="C24">
-        <v>0.005984306335449219</v>
+        <v>5.9843063354492188E-3</v>
       </c>
       <c r="D24">
         <v>0.1214923422477289</v>
       </c>
       <c r="E24">
-        <v>-0.09147129789206183</v>
+        <v>-9.1471297892061834E-2</v>
       </c>
       <c r="F24">
-        <v>0.02368477761794537</v>
+        <v>2.3684777617945369E-2</v>
       </c>
       <c r="G24">
-        <v>-0.01396637541618725</v>
+        <v>-1.3966375416187249E-2</v>
       </c>
       <c r="H24">
         <v>0.1418260485971872</v>
       </c>
       <c r="I24">
-        <v>0.5313187928088909</v>
+        <v>0.53131879280889094</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -1421,33 +1487,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25">
-        <v>0.2999179363250732</v>
+        <v>0.29991793632507319</v>
       </c>
       <c r="C25">
-        <v>0.00600886344909668</v>
+        <v>6.0088634490966797E-3</v>
       </c>
       <c r="D25">
         <v>0.128036216015011</v>
       </c>
       <c r="E25">
-        <v>-0.08752642110294095</v>
+        <v>-8.7526421102940954E-2</v>
       </c>
       <c r="F25">
-        <v>0.02610650245326436</v>
+        <v>2.610650245326436E-2</v>
       </c>
       <c r="G25">
-        <v>-0.01298836281489067</v>
+        <v>-1.298836281489067E-2</v>
       </c>
       <c r="H25">
-        <v>0.1513541275234155</v>
+        <v>0.15135412752341551</v>
       </c>
       <c r="I25">
-        <v>0.5523447758388684</v>
+        <v>0.55234477583886843</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -1462,33 +1528,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26">
-        <v>0.3088195323944092</v>
+        <v>0.30881953239440918</v>
       </c>
       <c r="C26">
-        <v>0.004985809326171875</v>
+        <v>4.985809326171875E-3</v>
       </c>
       <c r="D26">
-        <v>0.1228459290789553</v>
+        <v>0.12284592907895529</v>
       </c>
       <c r="E26">
-        <v>-0.09050003995223357</v>
+        <v>-9.0500039952233574E-2</v>
       </c>
       <c r="F26">
-        <v>0.02388068618422721</v>
+        <v>2.3880686184227212E-2</v>
       </c>
       <c r="G26">
-        <v>-0.01370922287578871</v>
+        <v>-1.3709222875788711E-2</v>
       </c>
       <c r="H26">
-        <v>0.1869399475184957</v>
+        <v>0.18693994751849571</v>
       </c>
       <c r="I26">
-        <v>0.5333247832064503</v>
+        <v>0.53332478320645027</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -1503,15 +1569,15 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>0.3641440868377686</v>
+        <v>0.36414408683776861</v>
       </c>
       <c r="C27">
-        <v>0.06286311149597168</v>
+        <v>6.286311149597168E-2</v>
       </c>
       <c r="D27">
         <v>0.1244680294731229</v>
@@ -1520,16 +1586,16 @@
         <v>-0.1169967706224506</v>
       </c>
       <c r="F27">
-        <v>0.02443869006647152</v>
+        <v>2.4438690066471518E-2</v>
       </c>
       <c r="G27">
-        <v>-0.02152489124645816</v>
+        <v>-2.152489124645816E-2</v>
       </c>
       <c r="H27">
-        <v>0.179084412584997</v>
+        <v>0.17908441258499699</v>
       </c>
       <c r="I27">
-        <v>0.2645935314842306</v>
+        <v>0.26459353148423059</v>
       </c>
       <c r="J27" t="s">
         <v>15</v>
@@ -1544,15 +1610,15 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.3121373653411865</v>
+        <v>0.31213736534118652</v>
       </c>
       <c r="C28">
-        <v>0.0528569221496582</v>
+        <v>5.2856922149658203E-2</v>
       </c>
       <c r="D28">
         <v>0.1238084964682344</v>
@@ -1561,16 +1627,16 @@
         <v>-0.1167090651753354</v>
       </c>
       <c r="F28">
-        <v>0.02372265278366534</v>
+        <v>2.3722652783665341E-2</v>
       </c>
       <c r="G28">
-        <v>-0.02161617786445444</v>
+        <v>-2.1616177864454439E-2</v>
       </c>
       <c r="H28">
-        <v>0.1876524204621753</v>
+        <v>0.18765242046217531</v>
       </c>
       <c r="I28">
-        <v>0.2651750459103343</v>
+        <v>0.26517504591033431</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -1585,33 +1651,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>0.2968008518218994</v>
+        <v>0.29680085182189941</v>
       </c>
       <c r="C29">
-        <v>0.05290007591247559</v>
+        <v>5.2900075912475593E-2</v>
       </c>
       <c r="D29">
-        <v>0.118581505709325</v>
+        <v>0.11858150570932501</v>
       </c>
       <c r="E29">
-        <v>-0.1183709535043228</v>
+        <v>-0.11837095350432281</v>
       </c>
       <c r="F29">
-        <v>0.02246789090633767</v>
+        <v>2.2467890906337669E-2</v>
       </c>
       <c r="G29">
-        <v>-0.02186975944672127</v>
+        <v>-2.186975944672127E-2</v>
       </c>
       <c r="H29">
         <v>0.1859176797095993</v>
       </c>
       <c r="I29">
-        <v>0.2660984004061185</v>
+        <v>0.26609840040611848</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -1626,33 +1692,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
-        <v>0.3802714347839355</v>
+        <v>0.38027143478393549</v>
       </c>
       <c r="C30">
-        <v>0.06240534782409668</v>
+        <v>6.240534782409668E-2</v>
       </c>
       <c r="D30">
-        <v>0.1297080774958154</v>
+        <v>0.12970807749581539</v>
       </c>
       <c r="E30">
-        <v>-0.115543455402452</v>
+        <v>-0.11554345540245201</v>
       </c>
       <c r="F30">
-        <v>0.02674609693234307</v>
+        <v>2.6746096932343071E-2</v>
       </c>
       <c r="G30">
-        <v>-0.0211119291027396</v>
+        <v>-2.11119291027396E-2</v>
       </c>
       <c r="H30">
-        <v>0.1305627857609309</v>
+        <v>0.13056278576093089</v>
       </c>
       <c r="I30">
-        <v>0.2723589963066204</v>
+        <v>0.27235899630662042</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1667,7 +1733,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1675,7 +1741,7 @@
         <v>0.2981715202331543</v>
       </c>
       <c r="C31">
-        <v>0.0538785457611084</v>
+        <v>5.3878545761108398E-2</v>
       </c>
       <c r="D31">
         <v>0.1241375820650515</v>
@@ -1684,16 +1750,16 @@
         <v>-0.1168535090120504</v>
       </c>
       <c r="F31">
-        <v>0.02426974231478447</v>
+        <v>2.426974231478447E-2</v>
       </c>
       <c r="G31">
-        <v>-0.02153359912976665</v>
+        <v>-2.1533599129766649E-2</v>
       </c>
       <c r="H31">
         <v>0.1736938458156867</v>
       </c>
       <c r="I31">
-        <v>0.2669754417679853</v>
+        <v>0.26697544176798532</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1708,33 +1774,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32">
-        <v>2.343019723892212</v>
+        <v>2.3430197238922119</v>
       </c>
       <c r="C32">
-        <v>0.4019246101379395</v>
+        <v>0.40192461013793951</v>
       </c>
       <c r="D32">
         <v>0.1217043608191942</v>
       </c>
       <c r="E32">
-        <v>-0.04637128030358431</v>
+        <v>-4.6371280303584311E-2</v>
       </c>
       <c r="F32">
-        <v>0.0235794872522909</v>
+        <v>2.35794872522909E-2</v>
       </c>
       <c r="G32">
-        <v>-0.003336274167757493</v>
+        <v>-3.336274167757493E-3</v>
       </c>
       <c r="H32">
-        <v>0.2079457378439717</v>
+        <v>0.20794573784397169</v>
       </c>
       <c r="I32">
-        <v>0.8860148664344754</v>
+        <v>0.88601486643447536</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
@@ -1749,33 +1815,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>3.725007772445679</v>
+        <v>3.7250077724456792</v>
       </c>
       <c r="C33">
-        <v>0.1361327171325684</v>
+        <v>0.13613271713256839</v>
       </c>
       <c r="D33">
-        <v>0.1219408059091635</v>
+        <v>0.12194080590916349</v>
       </c>
       <c r="E33">
-        <v>-0.04616238852800186</v>
+        <v>-4.6162388528001863E-2</v>
       </c>
       <c r="F33">
-        <v>0.02267218455700178</v>
+        <v>2.267218455700178E-2</v>
       </c>
       <c r="G33">
-        <v>-0.003381396529973144</v>
+        <v>-3.381396529973144E-3</v>
       </c>
       <c r="H33">
         <v>0.2236241698737387</v>
       </c>
       <c r="I33">
-        <v>0.8850520861977936</v>
+        <v>0.88505208619779363</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
@@ -1790,12 +1856,12 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34">
-        <v>2.123310565948486</v>
+        <v>2.1233105659484859</v>
       </c>
       <c r="C34">
         <v>0.1076841354370117</v>
@@ -1804,19 +1870,19 @@
         <v>0.1191636436397495</v>
       </c>
       <c r="E34">
-        <v>-0.04637026011618165</v>
+        <v>-4.6370260116181651E-2</v>
       </c>
       <c r="F34">
-        <v>0.02227917813971925</v>
+        <v>2.227917813971925E-2</v>
       </c>
       <c r="G34">
-        <v>-0.003357947254081078</v>
+        <v>-3.3579472540810778E-3</v>
       </c>
       <c r="H34">
-        <v>0.1927553365042476</v>
+        <v>0.19275533650424759</v>
       </c>
       <c r="I34">
-        <v>0.8873145876558121</v>
+        <v>0.88731458765581206</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
@@ -1831,30 +1897,30 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35">
-        <v>2.153688192367554</v>
+        <v>2.1536881923675542</v>
       </c>
       <c r="C35">
         <v>0.1077110767364502</v>
       </c>
       <c r="D35">
-        <v>0.1260920659087403</v>
+        <v>0.12609206590874031</v>
       </c>
       <c r="E35">
-        <v>-0.04586720269551416</v>
+        <v>-4.5867202695514163E-2</v>
       </c>
       <c r="F35">
-        <v>0.02537616677627756</v>
+        <v>2.5376166776277562E-2</v>
       </c>
       <c r="G35">
-        <v>-0.003305438275741286</v>
+        <v>-3.3054382757412861E-3</v>
       </c>
       <c r="H35">
-        <v>0.1750951996531195</v>
+        <v>0.17509519965311951</v>
       </c>
       <c r="I35">
         <v>0.8860751941282905</v>
@@ -1872,7 +1938,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1886,19 +1952,19 @@
         <v>0.1219776605832948</v>
       </c>
       <c r="E36">
-        <v>-0.04620446048743847</v>
+        <v>-4.6204460487438467E-2</v>
       </c>
       <c r="F36">
-        <v>0.02337672208171294</v>
+        <v>2.3376722081712941E-2</v>
       </c>
       <c r="G36">
-        <v>-0.003357146891327891</v>
+        <v>-3.3571468913278909E-3</v>
       </c>
       <c r="H36">
-        <v>0.2040982936597252</v>
+        <v>0.20409829365972521</v>
       </c>
       <c r="I36">
-        <v>0.8857194702053378</v>
+        <v>0.88571947020533781</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
@@ -1913,33 +1979,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
       <c r="B37">
-        <v>0.3590269088745117</v>
+        <v>0.35902690887451172</v>
       </c>
       <c r="C37">
-        <v>0.005986452102661133</v>
+        <v>5.9864521026611328E-3</v>
       </c>
       <c r="D37">
-        <v>0.1217792645419389</v>
+        <v>0.12177926454193889</v>
       </c>
       <c r="E37">
-        <v>-0.07197967162010516</v>
+        <v>-7.1979671620105157E-2</v>
       </c>
       <c r="F37">
-        <v>0.02414733343013373</v>
+        <v>2.4147333430133731E-2</v>
       </c>
       <c r="G37">
-        <v>-0.008743455386762175</v>
+        <v>-8.743455386762175E-3</v>
       </c>
       <c r="H37">
         <v>0.188871320296333</v>
       </c>
       <c r="I37">
-        <v>0.7012763699950408</v>
+        <v>0.70127636999504084</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -1954,7 +2020,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1962,25 +2028,25 @@
         <v>0.4098517894744873</v>
       </c>
       <c r="C38">
-        <v>0.004986047744750977</v>
+        <v>4.9860477447509774E-3</v>
       </c>
       <c r="D38">
         <v>0.1231140513197448</v>
       </c>
       <c r="E38">
-        <v>-0.07284667757587265</v>
+        <v>-7.2846677575872654E-2</v>
       </c>
       <c r="F38">
-        <v>0.02377279059965724</v>
+        <v>2.3772790599657239E-2</v>
       </c>
       <c r="G38">
-        <v>-0.009093845255247524</v>
+        <v>-9.0938452552475242E-3</v>
       </c>
       <c r="H38">
         <v>0.1859355242180766</v>
       </c>
       <c r="I38">
-        <v>0.690861887606214</v>
+        <v>0.69086188760621403</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -1995,33 +2061,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>0.3609943389892578</v>
+        <v>0.36099433898925781</v>
       </c>
       <c r="C39">
-        <v>0.006009340286254883</v>
+        <v>6.0093402862548828E-3</v>
       </c>
       <c r="D39">
-        <v>0.1231197428232459</v>
+        <v>0.12311974282324591</v>
       </c>
       <c r="E39">
-        <v>-0.07336135016050446</v>
+        <v>-7.3361350160504463E-2</v>
       </c>
       <c r="F39">
-        <v>0.02371144844952011</v>
+        <v>2.3711448449520112E-2</v>
       </c>
       <c r="G39">
-        <v>-0.009005942132669812</v>
+        <v>-9.0059421326698121E-3</v>
       </c>
       <c r="H39">
-        <v>0.1408596805236128</v>
+        <v>0.14085968052361281</v>
       </c>
       <c r="I39">
-        <v>0.6977801537726925</v>
+        <v>0.69778015377269254</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
@@ -2036,33 +2102,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>0.341806173324585</v>
+        <v>0.34180617332458502</v>
       </c>
       <c r="C40">
-        <v>0.004984378814697266</v>
+        <v>4.9843788146972656E-3</v>
       </c>
       <c r="D40">
         <v>0.1276806533603437</v>
       </c>
       <c r="E40">
-        <v>-0.069518304373878</v>
+        <v>-6.9518304373878001E-2</v>
       </c>
       <c r="F40">
-        <v>0.02608380735525027</v>
+        <v>2.6083807355250271E-2</v>
       </c>
       <c r="G40">
-        <v>-0.008214631753484764</v>
+        <v>-8.2146317534847642E-3</v>
       </c>
       <c r="H40">
-        <v>0.1520918786369395</v>
+        <v>0.15209187863693949</v>
       </c>
       <c r="I40">
-        <v>0.7168755699685676</v>
+        <v>0.71687556996856761</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -2077,30 +2143,30 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
-        <v>0.3488569259643555</v>
+        <v>0.34885692596435552</v>
       </c>
       <c r="C41">
-        <v>0.00600886344909668</v>
+        <v>6.0088634490966797E-3</v>
       </c>
       <c r="D41">
-        <v>0.1251556150447231</v>
+        <v>0.12515561504472311</v>
       </c>
       <c r="E41">
-        <v>-0.07252144275779578</v>
+        <v>-7.2521442757795776E-2</v>
       </c>
       <c r="F41">
-        <v>0.02485352628719364</v>
+        <v>2.4853526287193641E-2</v>
       </c>
       <c r="G41">
-        <v>-0.008906656945629936</v>
+        <v>-8.9066569456299361E-3</v>
       </c>
       <c r="H41">
-        <v>0.1538178915159162</v>
+        <v>0.15381789151591621</v>
       </c>
       <c r="I41">
         <v>0.6968087762036258</v>
@@ -2118,7 +2184,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2126,7 +2192,7 @@
         <v>0.3858954906463623</v>
       </c>
       <c r="C42">
-        <v>0.06083798408508301</v>
+        <v>6.0837984085083008E-2</v>
       </c>
       <c r="D42">
         <v>0.1234374497827018</v>
@@ -2135,16 +2201,16 @@
         <v>-0.1153922123904472</v>
       </c>
       <c r="F42">
-        <v>0.02431124078240241</v>
+        <v>2.4311240782402412E-2</v>
       </c>
       <c r="G42">
-        <v>-0.02113288131280476</v>
+        <v>-2.113288131280476E-2</v>
       </c>
       <c r="H42">
-        <v>0.1833655382759667</v>
+        <v>0.18336553827596669</v>
       </c>
       <c r="I42">
-        <v>0.2779867067449224</v>
+        <v>0.27798670674492237</v>
       </c>
       <c r="J42" t="s">
         <v>15</v>
@@ -2159,7 +2225,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2167,25 +2233,25 @@
         <v>0.2723231315612793</v>
       </c>
       <c r="C43">
-        <v>0.04935193061828613</v>
+        <v>4.9351930618286133E-2</v>
       </c>
       <c r="D43">
-        <v>0.1232654937851105</v>
+        <v>0.12326549378511049</v>
       </c>
       <c r="E43">
         <v>-0.1148199347832939</v>
       </c>
       <c r="F43">
-        <v>0.02364562880716053</v>
+        <v>2.3645628807160531E-2</v>
       </c>
       <c r="G43">
-        <v>-0.02113508125314641</v>
+        <v>-2.113508125314641E-2</v>
       </c>
       <c r="H43">
-        <v>0.1902899939852825</v>
+        <v>0.19028999398528251</v>
       </c>
       <c r="I43">
-        <v>0.2815295465780241</v>
+        <v>0.28152954657802409</v>
       </c>
       <c r="J43" t="s">
         <v>15</v>
@@ -2200,15 +2266,15 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>0.2712738513946533</v>
+        <v>0.27127385139465332</v>
       </c>
       <c r="C44">
-        <v>0.05188465118408203</v>
+        <v>5.1884651184082031E-2</v>
       </c>
       <c r="D44">
         <v>0.1184325351389339</v>
@@ -2217,16 +2283,16 @@
         <v>-0.1165522047982032</v>
       </c>
       <c r="F44">
-        <v>0.02263249882537282</v>
+        <v>2.263249882537282E-2</v>
       </c>
       <c r="G44">
-        <v>-0.02136888132798691</v>
+        <v>-2.1368881327986911E-2</v>
       </c>
       <c r="H44">
-        <v>0.1799534173217792</v>
+        <v>0.17995341732177919</v>
       </c>
       <c r="I44">
-        <v>0.2829067815607559</v>
+        <v>0.28290678156075588</v>
       </c>
       <c r="J44" t="s">
         <v>15</v>
@@ -2241,33 +2307,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45">
-        <v>0.3336892127990723</v>
+        <v>0.33368921279907232</v>
       </c>
       <c r="C45">
-        <v>0.05484628677368164</v>
+        <v>5.4846286773681641E-2</v>
       </c>
       <c r="D45">
-        <v>0.1296171048458925</v>
+        <v>0.12961710484589251</v>
       </c>
       <c r="E45">
         <v>-0.1141276486332693</v>
       </c>
       <c r="F45">
-        <v>0.02678150541787953</v>
+        <v>2.678150541787953E-2</v>
       </c>
       <c r="G45">
-        <v>-0.02069047489746297</v>
+        <v>-2.0690474897462969E-2</v>
       </c>
       <c r="H45">
         <v>0.1294117596840004</v>
       </c>
       <c r="I45">
-        <v>0.286884782152429</v>
+        <v>0.28688478215242902</v>
       </c>
       <c r="J45" t="s">
         <v>15</v>
@@ -2282,15 +2348,15 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46">
-        <v>0.3272504806518555</v>
+        <v>0.32725048065185552</v>
       </c>
       <c r="C46">
-        <v>0.06785178184509277</v>
+        <v>6.7851781845092773E-2</v>
       </c>
       <c r="D46">
         <v>0.1224834893953977</v>
@@ -2299,16 +2365,16 @@
         <v>-0.1152035797268111</v>
       </c>
       <c r="F46">
-        <v>0.02408114255426412</v>
+        <v>2.4081142554264121E-2</v>
       </c>
       <c r="G46">
-        <v>-0.02108916446966211</v>
+        <v>-2.1089164469662108E-2</v>
       </c>
       <c r="H46">
-        <v>0.1801150570825537</v>
+        <v>0.18011505708255371</v>
       </c>
       <c r="I46">
-        <v>0.2821044277968833</v>
+        <v>0.28210442779688327</v>
       </c>
       <c r="J46" t="s">
         <v>15</v>
@@ -2323,7 +2389,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2331,25 +2397,25 @@
         <v>1.206576347351074</v>
       </c>
       <c r="C47">
-        <v>0.05585169792175293</v>
+        <v>5.585169792175293E-2</v>
       </c>
       <c r="D47">
         <v>0.1218292006457755</v>
       </c>
       <c r="E47">
-        <v>-0.04552105323126948</v>
+        <v>-4.5521053231269482E-2</v>
       </c>
       <c r="F47">
-        <v>0.02333092214864541</v>
+        <v>2.3330922148645409E-2</v>
       </c>
       <c r="G47">
-        <v>-0.003267841249510199</v>
+        <v>-3.267841249510199E-3</v>
       </c>
       <c r="H47">
         <v>0.2162952429735433</v>
       </c>
       <c r="I47">
-        <v>0.8883529042978142</v>
+        <v>0.88835290429781422</v>
       </c>
       <c r="J47" t="s">
         <v>13</v>
@@ -2364,7 +2430,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2372,25 +2438,25 @@
         <v>1.249494314193726</v>
       </c>
       <c r="C48">
-        <v>0.05684876441955566</v>
+        <v>5.6848764419555657E-2</v>
       </c>
       <c r="D48">
         <v>0.1235703108829739</v>
       </c>
       <c r="E48">
-        <v>-0.04555316394070907</v>
+        <v>-4.5553163940709067E-2</v>
       </c>
       <c r="F48">
-        <v>0.02316466983083364</v>
+        <v>2.316466983083364E-2</v>
       </c>
       <c r="G48">
-        <v>-0.003340903370338625</v>
+        <v>-3.3409033703386249E-3</v>
       </c>
       <c r="H48">
         <v>0.2067597313219586</v>
       </c>
       <c r="I48">
-        <v>0.8864286192905524</v>
+        <v>0.88642861929055239</v>
       </c>
       <c r="J48" t="s">
         <v>13</v>
@@ -2405,7 +2471,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2413,25 +2479,25 @@
         <v>1.354920387268066</v>
       </c>
       <c r="C49">
-        <v>0.0568232536315918</v>
+        <v>5.6823253631591797E-2</v>
       </c>
       <c r="D49">
         <v>0.1196130636604774</v>
       </c>
       <c r="E49">
-        <v>-0.04554399917158528</v>
+        <v>-4.5543999171585282E-2</v>
       </c>
       <c r="F49">
-        <v>0.02270003004664776</v>
+        <v>2.2700030046647762E-2</v>
       </c>
       <c r="G49">
-        <v>-0.003235540986884613</v>
+        <v>-3.2355409868846129E-3</v>
       </c>
       <c r="H49">
         <v>0.1775065488757499</v>
       </c>
       <c r="I49">
-        <v>0.8914222759691954</v>
+        <v>0.89142227596919543</v>
       </c>
       <c r="J49" t="s">
         <v>13</v>
@@ -2446,33 +2512,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
       <c r="B50">
-        <v>1.214739799499512</v>
+        <v>1.2147397994995119</v>
       </c>
       <c r="C50">
-        <v>0.05485415458679199</v>
+        <v>5.4854154586791992E-2</v>
       </c>
       <c r="D50">
-        <v>0.125382625994695</v>
+        <v>0.12538262599469499</v>
       </c>
       <c r="E50">
-        <v>-0.04497185461323385</v>
+        <v>-4.4971854613233851E-2</v>
       </c>
       <c r="F50">
-        <v>0.02512098984725144</v>
+        <v>2.5120989847251439E-2</v>
       </c>
       <c r="G50">
-        <v>-0.003203982748979645</v>
+        <v>-3.203982748979645E-3</v>
       </c>
       <c r="H50">
-        <v>0.1833902536519053</v>
+        <v>0.18339025365190531</v>
       </c>
       <c r="I50">
-        <v>0.8895719471234254</v>
+        <v>0.88957194712342536</v>
       </c>
       <c r="J50" t="s">
         <v>13</v>
@@ -2487,7 +2553,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2495,25 +2561,25 @@
         <v>1.766496896743774</v>
       </c>
       <c r="C51">
-        <v>0.06782674789428711</v>
+        <v>6.7826747894287109E-2</v>
       </c>
       <c r="D51">
         <v>0.1228309018567639</v>
       </c>
       <c r="E51">
-        <v>-0.04536141658900273</v>
+        <v>-4.536141658900273E-2</v>
       </c>
       <c r="F51">
-        <v>0.02385555273026615</v>
+        <v>2.3855552730266152E-2</v>
       </c>
       <c r="G51">
-        <v>-0.003253330613848082</v>
+        <v>-3.2533306138480822E-3</v>
       </c>
       <c r="H51">
         <v>0.1877956602580281</v>
       </c>
       <c r="I51">
-        <v>0.8892534767816809</v>
+        <v>0.88925347678168087</v>
       </c>
       <c r="J51" t="s">
         <v>13</v>
@@ -2528,7 +2594,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2536,22 +2602,22 @@
         <v>2.357376337051392</v>
       </c>
       <c r="C52">
-        <v>0.007978200912475586</v>
+        <v>7.9782009124755859E-3</v>
       </c>
       <c r="D52">
-        <v>0.1207991065213423</v>
+        <v>0.12079910652134231</v>
       </c>
       <c r="E52">
-        <v>-0.1043968572980326</v>
+        <v>-0.10439685729803259</v>
       </c>
       <c r="F52">
-        <v>0.02311029545505142</v>
+        <v>2.311029545505142E-2</v>
       </c>
       <c r="G52">
-        <v>-0.01728704776711476</v>
+        <v>-1.728704776711476E-2</v>
       </c>
       <c r="H52">
-        <v>0.2237062740590275</v>
+        <v>0.22370627405902749</v>
       </c>
       <c r="I52">
         <v>0.4093811390768739</v>
@@ -2569,33 +2635,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
-        <v>2.698092699050903</v>
+        <v>2.6980926990509029</v>
       </c>
       <c r="C53">
-        <v>0.006980419158935547</v>
+        <v>6.9804191589355469E-3</v>
       </c>
       <c r="D53">
-        <v>0.1230078581948053</v>
+        <v>0.12300785819480529</v>
       </c>
       <c r="E53">
         <v>-0.1036999732951439</v>
       </c>
       <c r="F53">
-        <v>0.02320752147896368</v>
+        <v>2.320752147896368E-2</v>
       </c>
       <c r="G53">
-        <v>-0.01737850705085997</v>
+        <v>-1.737850705085997E-2</v>
       </c>
       <c r="H53">
-        <v>0.2052923392492808</v>
+        <v>0.20529233924928081</v>
       </c>
       <c r="I53">
-        <v>0.4092313300773532</v>
+        <v>0.40923133007735318</v>
       </c>
       <c r="J53" t="s">
         <v>14</v>
@@ -2610,33 +2676,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>2.624401807785034</v>
+        <v>2.6244018077850342</v>
       </c>
       <c r="C54">
-        <v>0.01094293594360352</v>
+        <v>1.0942935943603521E-2</v>
       </c>
       <c r="D54">
         <v>0.1198459621173001</v>
       </c>
       <c r="E54">
-        <v>-0.1043387205121531</v>
+        <v>-0.10433872051215309</v>
       </c>
       <c r="F54">
-        <v>0.0224735538939913</v>
+        <v>2.2473553893991301E-2</v>
       </c>
       <c r="G54">
-        <v>-0.01741089519519901</v>
+        <v>-1.7410895195199009E-2</v>
       </c>
       <c r="H54">
         <v>0.1857124918640615</v>
       </c>
       <c r="I54">
-        <v>0.4157281946677449</v>
+        <v>0.41572819466774491</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
@@ -2651,15 +2717,15 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55">
-        <v>2.681211471557617</v>
+        <v>2.6812114715576172</v>
       </c>
       <c r="C55">
-        <v>0.00795292854309082</v>
+        <v>7.9529285430908203E-3</v>
       </c>
       <c r="D55">
         <v>0.1264425791968006</v>
@@ -2668,16 +2734,16 @@
         <v>-0.1024861078199002</v>
       </c>
       <c r="F55">
-        <v>0.02589042972179314</v>
+        <v>2.5890429721793139E-2</v>
       </c>
       <c r="G55">
-        <v>-0.0167126375914463</v>
+        <v>-1.6712637591446301E-2</v>
       </c>
       <c r="H55">
-        <v>0.1583780186802665</v>
+        <v>0.15837801868026649</v>
       </c>
       <c r="I55">
-        <v>0.4239844055830201</v>
+        <v>0.42398440558302009</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
@@ -2692,33 +2758,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56">
-        <v>2.735902786254883</v>
+        <v>2.7359027862548828</v>
       </c>
       <c r="C56">
-        <v>0.007949590682983398</v>
+        <v>7.9495906829833984E-3</v>
       </c>
       <c r="D56">
-        <v>0.1221280175258729</v>
+        <v>0.12212801752587291</v>
       </c>
       <c r="E56">
-        <v>-0.1044485377838884</v>
+        <v>-0.10444853778388841</v>
       </c>
       <c r="F56">
-        <v>0.02392164468233345</v>
+        <v>2.3921644682333449E-2</v>
       </c>
       <c r="G56">
-        <v>-0.01727883210607539</v>
+        <v>-1.7278832106075389E-2</v>
       </c>
       <c r="H56">
         <v>0.1855454432583199</v>
       </c>
       <c r="I56">
-        <v>0.4118118297366895</v>
+        <v>0.41181182973668951</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
@@ -2733,33 +2799,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57">
-        <v>5.363491773605347</v>
+        <v>5.3634917736053467</v>
       </c>
       <c r="C57">
-        <v>0.07583117485046387</v>
+        <v>7.5831174850463867E-2</v>
       </c>
       <c r="D57">
-        <v>0.1735163615823835</v>
+        <v>0.17351636158238351</v>
       </c>
       <c r="E57">
-        <v>-0.0840342849972058</v>
+        <v>-8.4034284997205805E-2</v>
       </c>
       <c r="F57">
-        <v>0.05101768141572134</v>
+        <v>5.1017681415721342E-2</v>
       </c>
       <c r="G57">
-        <v>-0.008545030601938173</v>
+        <v>-8.5450306019381733E-3</v>
       </c>
       <c r="H57">
-        <v>-0.7137256454427146</v>
+        <v>-0.71372564544271455</v>
       </c>
       <c r="I57">
-        <v>0.7080556316694724</v>
+        <v>0.70805563166947239</v>
       </c>
       <c r="J57" t="s">
         <v>15</v>
@@ -2774,33 +2840,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58">
-        <v>5.038909196853638</v>
+        <v>5.0389091968536377</v>
       </c>
       <c r="C58">
-        <v>0.07830357551574707</v>
+        <v>7.830357551574707E-2</v>
       </c>
       <c r="D58">
-        <v>0.1671930467784093</v>
+        <v>0.16719304677840929</v>
       </c>
       <c r="E58">
-        <v>-0.08387342585890353</v>
+        <v>-8.3873425858903533E-2</v>
       </c>
       <c r="F58">
-        <v>0.0465505984173564</v>
+        <v>4.6550598417356398E-2</v>
       </c>
       <c r="G58">
-        <v>-0.008434494615635319</v>
+        <v>-8.4344946156353195E-3</v>
       </c>
       <c r="H58">
-        <v>-0.5940572201273862</v>
+        <v>-0.59405722012738615</v>
       </c>
       <c r="I58">
-        <v>0.7132759936762215</v>
+        <v>0.71327599367622152</v>
       </c>
       <c r="J58" t="s">
         <v>15</v>
@@ -2815,7 +2881,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2823,25 +2889,25 @@
         <v>5.294011116027832</v>
       </c>
       <c r="C59">
-        <v>0.06984376907348633</v>
+        <v>6.9843769073486328E-2</v>
       </c>
       <c r="D59">
-        <v>0.1748120005474774</v>
+        <v>0.17481200054747739</v>
       </c>
       <c r="E59">
-        <v>-0.08382909380641949</v>
+        <v>-8.3829093806419494E-2</v>
       </c>
       <c r="F59">
-        <v>0.05085510777730961</v>
+        <v>5.0855107777309609E-2</v>
       </c>
       <c r="G59">
-        <v>-0.008339957698497498</v>
+        <v>-8.339957698497498E-3</v>
       </c>
       <c r="H59">
-        <v>-0.8426404289818128</v>
+        <v>-0.84264042898181279</v>
       </c>
       <c r="I59">
-        <v>0.7201291440638027</v>
+        <v>0.72012914406380268</v>
       </c>
       <c r="J59" t="s">
         <v>15</v>
@@ -2856,7 +2922,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2864,25 +2930,25 @@
         <v>5.363032341003418</v>
       </c>
       <c r="C60">
-        <v>0.06905889511108398</v>
+        <v>6.9058895111083984E-2</v>
       </c>
       <c r="D60">
-        <v>0.1753918591512403</v>
+        <v>0.17539185915124031</v>
       </c>
       <c r="E60">
-        <v>-0.08342864887685615</v>
+        <v>-8.3428648876856151E-2</v>
       </c>
       <c r="F60">
-        <v>0.05266974531279803</v>
+        <v>5.2669745312798028E-2</v>
       </c>
       <c r="G60">
-        <v>-0.008390555224837896</v>
+        <v>-8.3905552248378958E-3</v>
       </c>
       <c r="H60">
-        <v>-0.7121390367827669</v>
+        <v>-0.71213903678276691</v>
       </c>
       <c r="I60">
-        <v>0.7108122144767189</v>
+        <v>0.71081221447671894</v>
       </c>
       <c r="J60" t="s">
         <v>15</v>
@@ -2897,33 +2963,33 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
       <c r="B61">
-        <v>5.064303874969482</v>
+        <v>5.0643038749694824</v>
       </c>
       <c r="C61">
-        <v>0.07782721519470215</v>
+        <v>7.7827215194702148E-2</v>
       </c>
       <c r="D61">
         <v>0.1662043737152826</v>
       </c>
       <c r="E61">
-        <v>-0.08263636604075519</v>
+        <v>-8.2636366040755194E-2</v>
       </c>
       <c r="F61">
-        <v>0.04545435088075037</v>
+        <v>4.5454350880750373E-2</v>
       </c>
       <c r="G61">
-        <v>-0.008220411558596631</v>
+        <v>-8.2204115585966311E-3</v>
       </c>
       <c r="H61">
         <v>-0.5475734921312756</v>
       </c>
       <c r="I61">
-        <v>0.7201692334424477</v>
+        <v>0.72016923344244765</v>
       </c>
       <c r="J61" t="s">
         <v>15</v>
